--- a/Data/Lipid raft/Inder_Lipidraft_altered.xlsx
+++ b/Data/Lipid raft/Inder_Lipidraft_altered.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9510" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9510" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Secretome Altered" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="P100 Altered" sheetId="3" r:id="rId3"/>
     <sheet name="Lipid Raft Altered" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -4841,8 +4841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="E131" sqref="E131"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4872,222 +4872,222 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>339</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>340</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>48.133499999999998</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D2">
-        <v>19.2127983516197</v>
+        <v>7.2111025509279799E-3</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>4.6999999999999999E-4</v>
+        <v>6.4999999999999997E-4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>1.2E-2</v>
+        <v>2.6857142857142899E-2</v>
       </c>
       <c r="D3">
-        <v>7.2111025509279799E-3</v>
+        <v>1.8114713830001801E-2</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>6.4999999999999997E-4</v>
+        <v>1.5900000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>341</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>342</v>
+        <v>21</v>
       </c>
       <c r="C4">
-        <v>14.704499999999999</v>
+        <v>0.10114285714285701</v>
       </c>
       <c r="D4">
-        <v>19.648376128830598</v>
+        <v>7.1029839470733006E-2</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="F4">
-        <v>1.2999999999999999E-3</v>
+        <v>6.3E-3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>345</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>346</v>
       </c>
       <c r="C5">
-        <v>2.6857142857142899E-2</v>
+        <v>0.11650000000000001</v>
       </c>
       <c r="D5">
-        <v>1.8114713830001801E-2</v>
+        <v>2.8991378028648498E-2</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1.5900000000000001E-3</v>
+        <v>2.8700000000000002E-3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B6" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C6">
-        <v>7.8120000000000003</v>
+        <v>0.125</v>
       </c>
       <c r="D6">
-        <v>2.79570992772855</v>
+        <v>4.2426406871192901E-3</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>2.5899999999999999E-3</v>
+        <v>3.5100000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>345</v>
+        <v>148</v>
       </c>
       <c r="B7" t="s">
-        <v>346</v>
+        <v>149</v>
       </c>
       <c r="C7">
-        <v>0.11650000000000001</v>
+        <v>0.1575</v>
       </c>
       <c r="D7">
-        <v>2.8991378028648498E-2</v>
+        <v>0.21708178182426999</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7">
-        <v>2.8700000000000002E-3</v>
+        <v>4.1399999999999996E-3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>347</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>348</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>0.125</v>
+        <v>0.1605</v>
       </c>
       <c r="D8">
-        <v>4.2426406871192901E-3</v>
+        <v>4.0045807104697802E-2</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>3.5100000000000001E-3</v>
+        <v>4.5100000000000001E-3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>286</v>
+        <v>349</v>
       </c>
       <c r="B9" t="s">
-        <v>287</v>
+        <v>350</v>
       </c>
       <c r="C9">
-        <v>5.2083333333333304</v>
+        <v>0.181666666666667</v>
       </c>
       <c r="D9">
-        <v>8.9216949436004995</v>
+        <v>0.16090162626068599</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>3.8800000000000002E-3</v>
+        <v>4.5199999999999997E-3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>246</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>247</v>
       </c>
       <c r="C10">
-        <v>0.1575</v>
+        <v>0.20849999999999999</v>
       </c>
       <c r="D10">
-        <v>0.21708178182426999</v>
+        <v>2.0506096654409899E-2</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
-        <v>4.1399999999999996E-3</v>
+        <v>6.1500000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="C11">
-        <v>0.1605</v>
+        <v>0.21</v>
       </c>
       <c r="D11">
-        <v>4.0045807104697802E-2</v>
+        <v>0.18300273222004099</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11">
-        <v>4.5100000000000001E-3</v>
+        <v>5.3899999999999998E-3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B12" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C12">
-        <v>0.181666666666667</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="D12">
-        <v>0.16090162626068599</v>
+        <v>8.6305658369927707E-2</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>4.5199999999999997E-3</v>
+        <v>5.5199999999999997E-3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5112,2167 +5112,2167 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="C14">
-        <v>0.21</v>
+        <v>0.23960000000000001</v>
       </c>
       <c r="D14">
-        <v>0.18300273222004099</v>
+        <v>0.12816761654581299</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F14">
-        <v>5.3899999999999998E-3</v>
+        <v>6.8300000000000001E-3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>353</v>
+        <v>256</v>
       </c>
       <c r="B15" t="s">
-        <v>354</v>
+        <v>257</v>
       </c>
       <c r="C15">
-        <v>0.22600000000000001</v>
+        <v>0.25650000000000001</v>
       </c>
       <c r="D15">
-        <v>8.6305658369927707E-2</v>
+        <v>0.34011836175072901</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>5.5199999999999997E-3</v>
+        <v>9.7800000000000005E-3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C16">
-        <v>3.9047499999999999</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="D16">
-        <v>1.9362502205723999</v>
+        <v>9.1164686145458806E-2</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>6.0499999999999998E-3</v>
+        <v>6.1799999999999997E-3</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>246</v>
+        <v>122</v>
       </c>
       <c r="B17" t="s">
-        <v>247</v>
+        <v>123</v>
       </c>
       <c r="C17">
-        <v>0.20849999999999999</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="D17">
-        <v>2.0506096654409899E-2</v>
+        <v>9.8994949366116702E-3</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>6.1500000000000001E-3</v>
+        <v>1.022E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C18">
-        <v>0.26200000000000001</v>
+        <v>0.26772222222222197</v>
       </c>
       <c r="D18">
-        <v>9.1164686145458806E-2</v>
+        <v>0.118786910328367</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F18">
-        <v>6.1799999999999997E-3</v>
+        <v>6.3E-3</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>355</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>356</v>
       </c>
       <c r="C19">
-        <v>0.10114285714285701</v>
+        <v>0.27314285714285702</v>
       </c>
       <c r="D19">
-        <v>7.1029839470733006E-2</v>
+        <v>8.6142185893301998E-2</v>
       </c>
       <c r="E19">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F19">
-        <v>6.3E-3</v>
+        <v>7.2100000000000003E-3</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20">
-        <v>0.26772222222222197</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="D20">
-        <v>0.118786910328367</v>
+        <v>0.13713351158633699</v>
       </c>
       <c r="E20">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F20">
-        <v>6.3E-3</v>
+        <v>8.0300000000000007E-3</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>365</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>366</v>
       </c>
       <c r="C21">
-        <v>0.309785714285714</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="D21">
-        <v>0.10594714108128001</v>
+        <v>1.55563491861041E-2</v>
       </c>
       <c r="E21">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>6.43E-3</v>
+        <v>1.5129999999999999E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="C22">
-        <v>0.23960000000000001</v>
+        <v>0.30891666666666701</v>
       </c>
       <c r="D22">
-        <v>0.12816761654581299</v>
+        <v>5.4259407786422902E-2</v>
       </c>
       <c r="E22">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F22">
-        <v>6.8300000000000001E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C23">
-        <v>0.34565000000000001</v>
+        <v>0.309785714285714</v>
       </c>
       <c r="D23">
-        <v>0.18135173007170299</v>
+        <v>0.10594714108128001</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F23">
-        <v>7.1300000000000001E-3</v>
+        <v>6.43E-3</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B24" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C24">
-        <v>0.27314285714285702</v>
+        <v>0.32119999999999999</v>
       </c>
       <c r="D24">
-        <v>8.6142185893301998E-2</v>
+        <v>0.112530884649504</v>
       </c>
       <c r="E24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F24">
-        <v>7.2100000000000003E-3</v>
+        <v>8.1399999999999997E-3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C25">
-        <v>0.30891666666666701</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="D25">
-        <v>5.4259407786422902E-2</v>
+        <v>0.171549409792048</v>
       </c>
       <c r="E25">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F25">
-        <v>7.3000000000000001E-3</v>
+        <v>9.3699999999999999E-3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>371</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>372</v>
       </c>
       <c r="C26">
-        <v>0.29599999999999999</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="D26">
-        <v>0.13713351158633699</v>
+        <v>0.103237590053236</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>8.0300000000000007E-3</v>
+        <v>2.1909999999999999E-2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>357</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>358</v>
+        <v>67</v>
       </c>
       <c r="C27">
-        <v>0.32119999999999999</v>
+        <v>0.336666666666667</v>
       </c>
       <c r="D27">
-        <v>0.112530884649504</v>
+        <v>0.23268075411028999</v>
       </c>
       <c r="E27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>8.1399999999999997E-3</v>
+        <v>1.208E-2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="C28">
-        <v>0.32800000000000001</v>
+        <v>0.33947727272727302</v>
       </c>
       <c r="D28">
-        <v>0.171549409792048</v>
+        <v>0.198151866663316</v>
       </c>
       <c r="E28">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="F28">
-        <v>9.3699999999999999E-3</v>
+        <v>1.0160000000000001E-2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>256</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>257</v>
+        <v>71</v>
       </c>
       <c r="C29">
-        <v>0.25650000000000001</v>
+        <v>0.34565000000000001</v>
       </c>
       <c r="D29">
-        <v>0.34011836175072901</v>
+        <v>0.18135173007170299</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F29">
-        <v>9.7800000000000005E-3</v>
+        <v>7.1300000000000001E-3</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>381</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>382</v>
       </c>
       <c r="C30">
-        <v>0.404535714285714</v>
+        <v>0.36549999999999999</v>
       </c>
       <c r="D30">
-        <v>0.12338962143247199</v>
+        <v>4.1719300090006302E-2</v>
       </c>
       <c r="E30">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>9.8899999999999995E-3</v>
+        <v>3.1289999999999998E-2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>367</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>368</v>
       </c>
       <c r="C31">
-        <v>0.42059999999999997</v>
+        <v>0.36566666666666697</v>
       </c>
       <c r="D31">
-        <v>0.12134350478639599</v>
+        <v>0.101352520113381</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>9.9299999999999996E-3</v>
+        <v>1.5720000000000001E-2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>322</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>323</v>
       </c>
       <c r="C32">
-        <v>0.33947727272727302</v>
+        <v>0.375</v>
       </c>
       <c r="D32">
-        <v>0.198151866663316</v>
+        <v>9.1923881554251199E-2</v>
       </c>
       <c r="E32">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1.0160000000000001E-2</v>
+        <v>3.5209999999999998E-2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>122</v>
+        <v>359</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>360</v>
       </c>
       <c r="C33">
-        <v>0.26600000000000001</v>
+        <v>0.37724999999999997</v>
       </c>
       <c r="D33">
-        <v>9.8994949366116702E-3</v>
+        <v>1.4728091073410301E-2</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F33">
-        <v>1.022E-2</v>
+        <v>1.281E-2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>192</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>193</v>
       </c>
       <c r="C34">
-        <v>0.47020689655172399</v>
+        <v>0.38779999999999998</v>
       </c>
       <c r="D34">
-        <v>0.18966594304391801</v>
+        <v>0.17291385138270399</v>
       </c>
       <c r="E34">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="F34">
-        <v>1.055E-2</v>
+        <v>1.1050000000000001E-2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>192</v>
+        <v>262</v>
       </c>
       <c r="B35" t="s">
-        <v>193</v>
+        <v>263</v>
       </c>
       <c r="C35">
-        <v>0.38779999999999998</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="D35">
-        <v>0.17291385138270399</v>
+        <v>0.107315733546702</v>
       </c>
       <c r="E35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F35">
-        <v>1.1050000000000001E-2</v>
+        <v>1.409E-2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B36" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C36">
-        <v>0.41826666666666701</v>
+        <v>0.40150000000000002</v>
       </c>
       <c r="D36">
-        <v>0.114366869994684</v>
+        <v>0.13364318164425701</v>
       </c>
       <c r="E36">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1.116E-2</v>
+        <v>4.6859999999999999E-2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>393</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>394</v>
       </c>
       <c r="C37">
-        <v>0.47964000000000001</v>
+        <v>0.40450000000000003</v>
       </c>
       <c r="D37">
-        <v>0.21174086588496399</v>
+        <v>0.18031222920257001</v>
       </c>
       <c r="E37">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1.205E-2</v>
+        <v>4.9349999999999998E-2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C38">
-        <v>0.336666666666667</v>
+        <v>0.404535714285714</v>
       </c>
       <c r="D38">
-        <v>0.23268075411028999</v>
+        <v>0.12338962143247199</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="F38">
-        <v>1.208E-2</v>
+        <v>9.8899999999999995E-3</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>136</v>
+        <v>369</v>
       </c>
       <c r="B39" t="s">
-        <v>137</v>
+        <v>370</v>
       </c>
       <c r="C39">
-        <v>0.46365217391304298</v>
+        <v>0.40649999999999997</v>
       </c>
       <c r="D39">
-        <v>0.12070912020060801</v>
+        <v>0.35869996747513999</v>
       </c>
       <c r="E39">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F39">
-        <v>1.225E-2</v>
+        <v>1.6469999999999999E-2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="C40">
-        <v>0.41699999999999998</v>
+        <v>0.415903225806452</v>
       </c>
       <c r="D40">
-        <v>0.106906501205493</v>
+        <v>8.6416587220282198E-2</v>
       </c>
       <c r="E40">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="F40">
-        <v>1.2359999999999999E-2</v>
+        <v>1.4930000000000001E-2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C41">
-        <v>0.47539999999999999</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="D41">
-        <v>7.6615381397384302E-2</v>
+        <v>0.106906501205493</v>
       </c>
       <c r="E41">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F41">
-        <v>1.2489999999999999E-2</v>
+        <v>1.2359999999999999E-2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>332</v>
+        <v>140</v>
       </c>
       <c r="B42" t="s">
-        <v>333</v>
+        <v>141</v>
       </c>
       <c r="C42">
-        <v>1.97575757575758</v>
+        <v>0.41826666666666701</v>
       </c>
       <c r="D42">
-        <v>6.3309183626385499</v>
+        <v>0.114366869994684</v>
       </c>
       <c r="E42">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F42">
-        <v>1.251E-2</v>
+        <v>1.116E-2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>160</v>
+        <v>377</v>
       </c>
       <c r="B43" t="s">
-        <v>161</v>
+        <v>378</v>
       </c>
       <c r="C43">
-        <v>0.47408</v>
+        <v>0.418333333333333</v>
       </c>
       <c r="D43">
-        <v>5.3853133613560498E-2</v>
+        <v>9.0643992262771297E-2</v>
       </c>
       <c r="E43">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F43">
-        <v>1.2670000000000001E-2</v>
+        <v>2.9770000000000001E-2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B44" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C44">
-        <v>0.37724999999999997</v>
+        <v>0.41975000000000001</v>
       </c>
       <c r="D44">
-        <v>1.4728091073410301E-2</v>
+        <v>0.115028158607913</v>
       </c>
       <c r="E44">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F44">
-        <v>1.281E-2</v>
+        <v>1.2840000000000001E-2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>361</v>
+        <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>362</v>
+        <v>31</v>
       </c>
       <c r="C45">
-        <v>0.41975000000000001</v>
+        <v>0.420186602870813</v>
       </c>
       <c r="D45">
-        <v>0.115028158607913</v>
+        <v>7.5122519237423802E-2</v>
       </c>
       <c r="E45">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="F45">
-        <v>1.2840000000000001E-2</v>
+        <v>4.7469999999999998E-2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>179</v>
+        <v>23</v>
       </c>
       <c r="C46">
-        <v>2.02035135135135</v>
+        <v>0.42059999999999997</v>
       </c>
       <c r="D46">
-        <v>1.64169595940391</v>
+        <v>0.12134350478639599</v>
       </c>
       <c r="E46">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F46">
-        <v>1.3129999999999999E-2</v>
+        <v>9.9299999999999996E-3</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="B47" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="C47">
-        <v>0.48633333333333301</v>
+        <v>0.42469230769230798</v>
       </c>
       <c r="D47">
-        <v>0.17167595444130601</v>
+        <v>0.116263626165842</v>
       </c>
       <c r="E47">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F47">
-        <v>1.32E-2</v>
+        <v>1.3299999999999999E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="B48" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="C48">
-        <v>0.42469230769230798</v>
+        <v>0.42933333333333301</v>
       </c>
       <c r="D48">
-        <v>0.116263626165842</v>
+        <v>0.13221699336066201</v>
       </c>
       <c r="E48">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F48">
-        <v>1.3299999999999999E-2</v>
+        <v>3.406E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="B49" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="C49">
-        <v>1.87078787878788</v>
+        <v>0.4375</v>
       </c>
       <c r="D49">
-        <v>3.5400527075664399</v>
+        <v>0.13228265192382599</v>
       </c>
       <c r="E49">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="F49">
-        <v>1.332E-2</v>
+        <v>1.4710000000000001E-2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>306</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>307</v>
       </c>
       <c r="C50">
-        <v>2.1817105263157899</v>
+        <v>0.442428571428571</v>
       </c>
       <c r="D50">
-        <v>3.23363194606141</v>
+        <v>0.11638246913036</v>
       </c>
       <c r="E50">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F50">
-        <v>1.336E-2</v>
+        <v>1.487E-2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>262</v>
+        <v>184</v>
       </c>
       <c r="B51" t="s">
-        <v>263</v>
+        <v>185</v>
       </c>
       <c r="C51">
-        <v>0.39500000000000002</v>
+        <v>0.449125</v>
       </c>
       <c r="D51">
-        <v>0.107315733546702</v>
+        <v>0.10170607159850401</v>
       </c>
       <c r="E51">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F51">
-        <v>1.409E-2</v>
+        <v>1.4370000000000001E-2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>292</v>
+        <v>32</v>
       </c>
       <c r="B52" t="s">
-        <v>293</v>
+        <v>33</v>
       </c>
       <c r="C52">
-        <v>0.45100000000000001</v>
+        <v>0.449438848920863</v>
       </c>
       <c r="D52">
-        <v>0.26390465449981498</v>
+        <v>0.14678457621002999</v>
       </c>
       <c r="E52">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="F52">
-        <v>1.4120000000000001E-2</v>
+        <v>3.1510000000000003E-2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>184</v>
+        <v>292</v>
       </c>
       <c r="B53" t="s">
-        <v>185</v>
+        <v>293</v>
       </c>
       <c r="C53">
-        <v>0.449125</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="D53">
-        <v>0.10170607159850401</v>
+        <v>0.26390465449981498</v>
       </c>
       <c r="E53">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F53">
-        <v>1.4370000000000001E-2</v>
+        <v>1.4120000000000001E-2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="B54" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="C54">
-        <v>0.52903124999999995</v>
+        <v>0.45419999999999999</v>
       </c>
       <c r="D54">
-        <v>0.22576480026718601</v>
+        <v>0.12989123655325399</v>
       </c>
       <c r="E54">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="F54">
-        <v>1.451E-2</v>
+        <v>1.5509999999999999E-2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="B55" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="C55">
-        <v>0.4375</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="D55">
-        <v>0.13228265192382599</v>
+        <v>0.17552777557982099</v>
       </c>
       <c r="E55">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F55">
-        <v>1.4710000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>306</v>
+        <v>136</v>
       </c>
       <c r="B56" t="s">
-        <v>307</v>
+        <v>137</v>
       </c>
       <c r="C56">
-        <v>0.442428571428571</v>
+        <v>0.46365217391304298</v>
       </c>
       <c r="D56">
-        <v>0.11638246913036</v>
+        <v>0.12070912020060801</v>
       </c>
       <c r="E56">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F56">
-        <v>1.487E-2</v>
+        <v>1.225E-2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>24</v>
+        <v>387</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>388</v>
       </c>
       <c r="C57">
-        <v>0.415903225806452</v>
+        <v>0.46675</v>
       </c>
       <c r="D57">
-        <v>8.6416587220282198E-2</v>
+        <v>4.60172069266849E-2</v>
       </c>
       <c r="E57">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="F57">
-        <v>1.4930000000000001E-2</v>
+        <v>3.5099999999999999E-2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>365</v>
+        <v>84</v>
       </c>
       <c r="B58" t="s">
-        <v>366</v>
+        <v>85</v>
       </c>
       <c r="C58">
-        <v>0.29899999999999999</v>
+        <v>0.47020689655172399</v>
       </c>
       <c r="D58">
-        <v>1.55563491861041E-2</v>
+        <v>0.18966594304391801</v>
       </c>
       <c r="E58">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="F58">
-        <v>1.5129999999999999E-2</v>
+        <v>1.055E-2</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="B59" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="C59">
-        <v>0.45419999999999999</v>
+        <v>0.47408</v>
       </c>
       <c r="D59">
-        <v>0.12989123655325399</v>
+        <v>5.3853133613560498E-2</v>
       </c>
       <c r="E59">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F59">
-        <v>1.5509999999999999E-2</v>
+        <v>1.2670000000000001E-2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="B60" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="C60">
-        <v>0.525708333333333</v>
+        <v>0.47539999999999999</v>
       </c>
       <c r="D60">
-        <v>0.10512248721772401</v>
+        <v>7.6615381397384302E-2</v>
       </c>
       <c r="E60">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F60">
-        <v>1.5679999999999999E-2</v>
+        <v>1.2489999999999999E-2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>367</v>
+        <v>268</v>
       </c>
       <c r="B61" t="s">
-        <v>368</v>
+        <v>269</v>
       </c>
       <c r="C61">
-        <v>0.36566666666666697</v>
+        <v>0.476333333333333</v>
       </c>
       <c r="D61">
-        <v>0.101352520113381</v>
+        <v>0.184397668098054</v>
       </c>
       <c r="E61">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F61">
-        <v>1.5720000000000001E-2</v>
+        <v>1.702E-2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="B62" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="C62">
-        <v>0.559840579710145</v>
+        <v>0.47662500000000002</v>
       </c>
       <c r="D62">
-        <v>0.14406275421704301</v>
+        <v>0.15465070088982599</v>
       </c>
       <c r="E62">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="F62">
-        <v>1.6279999999999999E-2</v>
+        <v>1.711E-2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="B63" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="C63">
-        <v>0.40649999999999997</v>
+        <v>0.47949999999999998</v>
       </c>
       <c r="D63">
-        <v>0.35869996747513999</v>
+        <v>0.111527276185395</v>
       </c>
       <c r="E63">
         <v>4</v>
       </c>
       <c r="F63">
-        <v>1.6469999999999999E-2</v>
+        <v>4.2360000000000002E-2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>318</v>
+        <v>108</v>
       </c>
       <c r="B64" t="s">
-        <v>319</v>
+        <v>109</v>
       </c>
       <c r="C64">
-        <v>0.57357352941176498</v>
+        <v>0.47964000000000001</v>
       </c>
       <c r="D64">
-        <v>0.175129232979745</v>
+        <v>0.21174086588496399</v>
       </c>
       <c r="E64">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F64">
-        <v>1.6549999999999999E-2</v>
+        <v>1.205E-2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="B65" t="s">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="C65">
-        <v>0.57482857142857102</v>
+        <v>0.48633333333333301</v>
       </c>
       <c r="D65">
-        <v>9.6109155380219399E-2</v>
+        <v>0.17167595444130601</v>
       </c>
       <c r="E65">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F65">
-        <v>1.6660000000000001E-2</v>
+        <v>1.32E-2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>302</v>
+        <v>391</v>
       </c>
       <c r="B66" t="s">
-        <v>303</v>
+        <v>392</v>
       </c>
       <c r="C66">
-        <v>0.52917391304347805</v>
+        <v>0.48675000000000002</v>
       </c>
       <c r="D66">
-        <v>0.139584660584019</v>
+        <v>0.10474850834260099</v>
       </c>
       <c r="E66">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F66">
-        <v>1.6709999999999999E-2</v>
+        <v>4.7480000000000001E-2</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>154</v>
+        <v>312</v>
       </c>
       <c r="B67" t="s">
-        <v>155</v>
+        <v>313</v>
       </c>
       <c r="C67">
-        <v>0.53462962962963001</v>
+        <v>0.495</v>
       </c>
       <c r="D67">
-        <v>0.168509106840904</v>
+        <v>0.575064518119489</v>
       </c>
       <c r="E67">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F67">
-        <v>1.6899999999999998E-2</v>
+        <v>1.8380000000000001E-2</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B68" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C68">
-        <v>0.476333333333333</v>
+        <v>0.49666666666666698</v>
       </c>
       <c r="D68">
-        <v>0.184397668098054</v>
+        <v>0.32834778309997298</v>
       </c>
       <c r="E68">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F68">
-        <v>1.702E-2</v>
+        <v>3.0700000000000002E-2</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B69" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C69">
-        <v>0.47662500000000002</v>
+        <v>0.50229999999999997</v>
       </c>
       <c r="D69">
-        <v>0.15465070088982599</v>
+        <v>4.3341153140584003E-2</v>
       </c>
       <c r="E69">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F69">
-        <v>1.711E-2</v>
+        <v>1.9400000000000001E-2</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>88</v>
+        <v>264</v>
       </c>
       <c r="B70" t="s">
-        <v>89</v>
+        <v>265</v>
       </c>
       <c r="C70">
-        <v>2.1863333333333301</v>
+        <v>0.506083333333333</v>
       </c>
       <c r="D70">
-        <v>0.36647328233674398</v>
+        <v>0.104352948586937</v>
       </c>
       <c r="E70">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F70">
-        <v>1.7309999999999999E-2</v>
+        <v>1.9220000000000001E-2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="B71" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="C71">
-        <v>0.60557894736842099</v>
+        <v>0.50675000000000003</v>
       </c>
       <c r="D71">
-        <v>0.12054302282121999</v>
+        <v>0.190120826243283</v>
       </c>
       <c r="E71">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="F71">
-        <v>1.779E-2</v>
+        <v>2.3429999999999999E-2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>312</v>
+        <v>82</v>
       </c>
       <c r="B72" t="s">
-        <v>313</v>
+        <v>83</v>
       </c>
       <c r="C72">
-        <v>0.495</v>
+        <v>0.50877631578947402</v>
       </c>
       <c r="D72">
-        <v>0.575064518119489</v>
+        <v>0.23931555729812501</v>
       </c>
       <c r="E72">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="F72">
-        <v>1.8380000000000001E-2</v>
+        <v>1.8599999999999998E-2</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B73" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C73">
-        <v>0.50877631578947402</v>
+        <v>0.51671428571428601</v>
       </c>
       <c r="D73">
-        <v>0.23931555729812501</v>
+        <v>0.23943037560406699</v>
       </c>
       <c r="E73">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="F73">
-        <v>1.8599999999999998E-2</v>
+        <v>3.431E-2</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>264</v>
+        <v>379</v>
       </c>
       <c r="B74" t="s">
-        <v>265</v>
+        <v>380</v>
       </c>
       <c r="C74">
-        <v>0.506083333333333</v>
+        <v>0.52212499999999995</v>
       </c>
       <c r="D74">
-        <v>0.104352948586937</v>
+        <v>6.9268499334112901E-2</v>
       </c>
       <c r="E74">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F74">
-        <v>1.9220000000000001E-2</v>
+        <v>2.9989999999999999E-2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>252</v>
+        <v>170</v>
       </c>
       <c r="B75" t="s">
-        <v>253</v>
+        <v>171</v>
       </c>
       <c r="C75">
-        <v>0.55130434782608695</v>
+        <v>0.525708333333333</v>
       </c>
       <c r="D75">
-        <v>6.4928236456321994E-2</v>
+        <v>0.10512248721772401</v>
       </c>
       <c r="E75">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F75">
-        <v>1.934E-2</v>
+        <v>1.5679999999999999E-2</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>110</v>
+        <v>375</v>
       </c>
       <c r="B76" t="s">
-        <v>111</v>
+        <v>376</v>
       </c>
       <c r="C76">
-        <v>0.50229999999999997</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="D76">
-        <v>4.3341153140584003E-2</v>
+        <v>8.1767964387038497E-2</v>
       </c>
       <c r="E76">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76">
-        <v>1.9400000000000001E-2</v>
+        <v>2.4670000000000001E-2</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>114</v>
+        <v>373</v>
       </c>
       <c r="B77" t="s">
-        <v>115</v>
+        <v>374</v>
       </c>
       <c r="C77">
-        <v>0.58579999999999999</v>
+        <v>0.52763636363636401</v>
       </c>
       <c r="D77">
-        <v>6.6098243378911195E-2</v>
+        <v>0.28929613641639701</v>
       </c>
       <c r="E77">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="F77">
-        <v>1.9779999999999999E-2</v>
+        <v>2.4549999999999999E-2</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="B78" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="C78">
-        <v>0.61589156626506003</v>
+        <v>0.52903124999999995</v>
       </c>
       <c r="D78">
-        <v>8.9882716541517305E-2</v>
+        <v>0.22576480026718601</v>
       </c>
       <c r="E78">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="F78">
-        <v>1.9939999999999999E-2</v>
+        <v>1.451E-2</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B79" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C79">
-        <v>0.61448913043478304</v>
+        <v>0.52917391304347805</v>
       </c>
       <c r="D79">
-        <v>0.16943302314219499</v>
+        <v>0.139584660584019</v>
       </c>
       <c r="E79">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="F79">
-        <v>2.181E-2</v>
+        <v>1.6709999999999999E-2</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>371</v>
+        <v>154</v>
       </c>
       <c r="B80" t="s">
-        <v>372</v>
+        <v>155</v>
       </c>
       <c r="C80">
-        <v>0.33400000000000002</v>
+        <v>0.53462962962963001</v>
       </c>
       <c r="D80">
-        <v>0.103237590053236</v>
+        <v>0.168509106840904</v>
       </c>
       <c r="E80">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="F80">
-        <v>2.1909999999999999E-2</v>
+        <v>1.6899999999999998E-2</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B81" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C81">
-        <v>0.58760000000000001</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="D81">
-        <v>0.18001620616699701</v>
+        <v>8.8872300039358199E-2</v>
       </c>
       <c r="E81">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F81">
-        <v>2.198E-2</v>
+        <v>3.8089999999999999E-2</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c r="B82" t="s">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="C82">
-        <v>0.60469354838709699</v>
+        <v>0.53745061728395105</v>
       </c>
       <c r="D82">
-        <v>0.15281807342147599</v>
+        <v>0.14493747002417201</v>
       </c>
       <c r="E82">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="F82">
-        <v>2.231E-2</v>
+        <v>3.6490000000000002E-2</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="B83" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="C83">
-        <v>0.55157894736842095</v>
+        <v>0.54590000000000005</v>
       </c>
       <c r="D83">
-        <v>8.1514358509865298E-2</v>
+        <v>0.11262272318576599</v>
       </c>
       <c r="E83">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F83">
-        <v>2.2419999999999999E-2</v>
+        <v>3.4299999999999997E-2</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="B84" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="C84">
-        <v>0.50675000000000003</v>
+        <v>0.55130434782608695</v>
       </c>
       <c r="D84">
-        <v>0.190120826243283</v>
+        <v>6.4928236456321994E-2</v>
       </c>
       <c r="E84">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F84">
-        <v>2.3429999999999999E-2</v>
+        <v>1.934E-2</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>232</v>
+        <v>164</v>
       </c>
       <c r="B85" t="s">
-        <v>233</v>
+        <v>165</v>
       </c>
       <c r="C85">
-        <v>0.630724770642202</v>
+        <v>0.55157894736842095</v>
       </c>
       <c r="D85">
-        <v>0.133932810100717</v>
+        <v>8.1514358509865298E-2</v>
       </c>
       <c r="E85">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="F85">
-        <v>2.445E-2</v>
+        <v>2.2419999999999999E-2</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>373</v>
+        <v>132</v>
       </c>
       <c r="B86" t="s">
-        <v>374</v>
+        <v>133</v>
       </c>
       <c r="C86">
-        <v>0.52763636363636401</v>
+        <v>0.559840579710145</v>
       </c>
       <c r="D86">
-        <v>0.28929613641639701</v>
+        <v>0.14406275421704301</v>
       </c>
       <c r="E86">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="F86">
-        <v>2.4549999999999999E-2</v>
+        <v>1.6279999999999999E-2</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>375</v>
+        <v>156</v>
       </c>
       <c r="B87" t="s">
-        <v>376</v>
+        <v>157</v>
       </c>
       <c r="C87">
-        <v>0.52700000000000002</v>
+        <v>0.56510000000000005</v>
       </c>
       <c r="D87">
-        <v>8.1767964387038497E-2</v>
+        <v>0.13706644779489699</v>
       </c>
       <c r="E87">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F87">
-        <v>2.4670000000000001E-2</v>
+        <v>4.8840000000000001E-2</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="B88" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="C88">
-        <v>0.63790000000000002</v>
+        <v>0.56559999999999999</v>
       </c>
       <c r="D88">
-        <v>0.10290558155705801</v>
+        <v>0.11415019345873501</v>
       </c>
       <c r="E88">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="F88">
-        <v>2.6419999999999999E-2</v>
+        <v>4.8980000000000003E-2</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>308</v>
+        <v>258</v>
       </c>
       <c r="B89" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="C89">
-        <v>0.65511578947368398</v>
+        <v>0.56646153846153802</v>
       </c>
       <c r="D89">
-        <v>0.14331165734516901</v>
+        <v>0.12653893694868201</v>
       </c>
       <c r="E89">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="F89">
-        <v>2.9010000000000001E-2</v>
+        <v>3.7830000000000003E-2</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>176</v>
+        <v>318</v>
       </c>
       <c r="B90" t="s">
-        <v>177</v>
+        <v>319</v>
       </c>
       <c r="C90">
-        <v>0.58484251968503997</v>
+        <v>0.57357352941176498</v>
       </c>
       <c r="D90">
-        <v>0.130277507542087</v>
+        <v>0.175129232979745</v>
       </c>
       <c r="E90">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="F90">
-        <v>2.93E-2</v>
+        <v>1.6549999999999999E-2</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>377</v>
+        <v>290</v>
       </c>
       <c r="B91" t="s">
-        <v>378</v>
+        <v>291</v>
       </c>
       <c r="C91">
-        <v>0.418333333333333</v>
+        <v>0.57482857142857102</v>
       </c>
       <c r="D91">
-        <v>9.0643992262771297E-2</v>
+        <v>9.6109155380219399E-2</v>
       </c>
       <c r="E91">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="F91">
-        <v>2.9770000000000001E-2</v>
+        <v>1.6660000000000001E-2</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="B92" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="C92">
-        <v>0.64610810810810804</v>
+        <v>0.58484251968503997</v>
       </c>
       <c r="D92">
-        <v>0.15968149527530701</v>
+        <v>0.130277507542087</v>
       </c>
       <c r="E92">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="F92">
-        <v>2.9790000000000001E-2</v>
+        <v>2.93E-2</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>379</v>
+        <v>114</v>
       </c>
       <c r="B93" t="s">
-        <v>380</v>
+        <v>115</v>
       </c>
       <c r="C93">
-        <v>0.52212499999999995</v>
+        <v>0.58579999999999999</v>
       </c>
       <c r="D93">
-        <v>6.9268499334112901E-2</v>
+        <v>6.6098243378911195E-2</v>
       </c>
       <c r="E93">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="F93">
-        <v>2.9989999999999999E-2</v>
+        <v>1.9779999999999999E-2</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="B94" t="s">
-        <v>271</v>
+        <v>223</v>
       </c>
       <c r="C94">
-        <v>0.49666666666666698</v>
+        <v>0.58760000000000001</v>
       </c>
       <c r="D94">
-        <v>0.32834778309997298</v>
+        <v>0.18001620616699701</v>
       </c>
       <c r="E94">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F94">
-        <v>3.0700000000000002E-2</v>
+        <v>2.198E-2</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>34</v>
+        <v>284</v>
       </c>
       <c r="B95" t="s">
-        <v>35</v>
+        <v>285</v>
       </c>
       <c r="C95">
-        <v>0.69080299251870303</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="D95">
-        <v>8.5885669094603101E-2</v>
+        <v>6.3268475562478999E-2</v>
       </c>
       <c r="E95">
-        <v>802</v>
+        <v>21</v>
       </c>
       <c r="F95">
-        <v>3.092E-2</v>
+        <v>3.415E-2</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>381</v>
+        <v>294</v>
       </c>
       <c r="B96" t="s">
-        <v>382</v>
+        <v>295</v>
       </c>
       <c r="C96">
-        <v>0.36549999999999999</v>
+        <v>0.59794999999999998</v>
       </c>
       <c r="D96">
-        <v>4.1719300090006302E-2</v>
+        <v>6.5170606063906206E-2</v>
       </c>
       <c r="E96">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F96">
-        <v>3.1289999999999998E-2</v>
+        <v>4.2630000000000001E-2</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="B97" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="C97">
-        <v>0.449438848920863</v>
+        <v>0.60469354838709699</v>
       </c>
       <c r="D97">
-        <v>0.14678457621002999</v>
+        <v>0.15281807342147599</v>
       </c>
       <c r="E97">
-        <v>139</v>
+        <v>62</v>
       </c>
       <c r="F97">
-        <v>3.1510000000000003E-2</v>
+        <v>2.231E-2</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>383</v>
+        <v>244</v>
       </c>
       <c r="B98" t="s">
-        <v>384</v>
+        <v>245</v>
       </c>
       <c r="C98">
-        <v>2.0034999999999998</v>
+        <v>0.60557894736842099</v>
       </c>
       <c r="D98">
-        <v>0.57466712103617001</v>
+        <v>0.12054302282121999</v>
       </c>
       <c r="E98">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="F98">
-        <v>3.2129999999999999E-2</v>
+        <v>1.779E-2</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>385</v>
+        <v>86</v>
       </c>
       <c r="B99" t="s">
-        <v>386</v>
+        <v>87</v>
       </c>
       <c r="C99">
-        <v>0.45800000000000002</v>
+        <v>0.60663636363636397</v>
       </c>
       <c r="D99">
-        <v>0.17552777557982099</v>
+        <v>0.30397439513951302</v>
       </c>
       <c r="E99">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F99">
-        <v>3.3000000000000002E-2</v>
+        <v>4.65E-2</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="B100" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="C100">
-        <v>0.62376315789473702</v>
+        <v>0.60813636363636403</v>
       </c>
       <c r="D100">
-        <v>0.118843625216597</v>
+        <v>8.4540942718135004E-2</v>
       </c>
       <c r="E100">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F100">
-        <v>3.4020000000000002E-2</v>
+        <v>4.8210000000000003E-2</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>240</v>
+        <v>296</v>
       </c>
       <c r="B101" t="s">
-        <v>241</v>
+        <v>297</v>
       </c>
       <c r="C101">
-        <v>0.42933333333333301</v>
+        <v>0.61448913043478304</v>
       </c>
       <c r="D101">
-        <v>0.13221699336066201</v>
+        <v>0.16943302314219499</v>
       </c>
       <c r="E101">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="F101">
-        <v>3.406E-2</v>
+        <v>2.181E-2</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>284</v>
+        <v>42</v>
       </c>
       <c r="B102" t="s">
-        <v>285</v>
+        <v>43</v>
       </c>
       <c r="C102">
-        <v>0.58799999999999997</v>
+        <v>0.61589156626506003</v>
       </c>
       <c r="D102">
-        <v>6.3268475562478999E-2</v>
+        <v>8.9882716541517305E-2</v>
       </c>
       <c r="E102">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="F102">
-        <v>3.415E-2</v>
+        <v>1.9939999999999999E-2</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="B103" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="C103">
-        <v>0.54590000000000005</v>
+        <v>0.62376315789473702</v>
       </c>
       <c r="D103">
-        <v>0.11262272318576599</v>
+        <v>0.118843625216597</v>
       </c>
       <c r="E103">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F103">
-        <v>3.4299999999999997E-2</v>
+        <v>3.4020000000000002E-2</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>64</v>
+        <v>232</v>
       </c>
       <c r="B104" t="s">
-        <v>65</v>
+        <v>233</v>
       </c>
       <c r="C104">
-        <v>0.51671428571428601</v>
+        <v>0.630724770642202</v>
       </c>
       <c r="D104">
-        <v>0.23943037560406699</v>
+        <v>0.133932810100717</v>
       </c>
       <c r="E104">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="F104">
-        <v>3.431E-2</v>
+        <v>2.445E-2</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>387</v>
+        <v>300</v>
       </c>
       <c r="B105" t="s">
-        <v>388</v>
+        <v>301</v>
       </c>
       <c r="C105">
-        <v>0.46675</v>
+        <v>0.63072727272727303</v>
       </c>
       <c r="D105">
-        <v>4.60172069266849E-2</v>
+        <v>0.11036254820116501</v>
       </c>
       <c r="E105">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F105">
-        <v>3.5099999999999999E-2</v>
+        <v>4.9110000000000001E-2</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>322</v>
+        <v>234</v>
       </c>
       <c r="B106" t="s">
-        <v>323</v>
+        <v>235</v>
       </c>
       <c r="C106">
-        <v>0.375</v>
+        <v>0.63790000000000002</v>
       </c>
       <c r="D106">
-        <v>9.1923881554251199E-2</v>
+        <v>0.10290558155705801</v>
       </c>
       <c r="E106">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="F106">
-        <v>3.5209999999999998E-2</v>
+        <v>2.6419999999999999E-2</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>28</v>
+        <v>202</v>
       </c>
       <c r="B107" t="s">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="C107">
-        <v>0.53745061728395105</v>
+        <v>0.64610810810810804</v>
       </c>
       <c r="D107">
-        <v>0.14493747002417201</v>
+        <v>0.15968149527530701</v>
       </c>
       <c r="E107">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="F107">
-        <v>3.6490000000000002E-2</v>
+        <v>2.9790000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>258</v>
+        <v>308</v>
       </c>
       <c r="B108" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="C108">
-        <v>0.56646153846153802</v>
+        <v>0.65511578947368398</v>
       </c>
       <c r="D108">
-        <v>0.12653893694868201</v>
+        <v>0.14331165734516901</v>
       </c>
       <c r="E108">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="F108">
-        <v>3.7830000000000003E-2</v>
+        <v>2.9010000000000001E-2</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>216</v>
+        <v>328</v>
       </c>
       <c r="B109" t="s">
-        <v>217</v>
+        <v>329</v>
       </c>
       <c r="C109">
-        <v>0.53500000000000003</v>
+        <v>0.66846551724138004</v>
       </c>
       <c r="D109">
-        <v>8.8872300039358199E-2</v>
+        <v>0.25128734396181301</v>
       </c>
       <c r="E109">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="F109">
-        <v>3.8089999999999999E-2</v>
+        <v>4.0059999999999998E-2</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>328</v>
+        <v>34</v>
       </c>
       <c r="B110" t="s">
-        <v>329</v>
+        <v>35</v>
       </c>
       <c r="C110">
-        <v>0.66846551724138004</v>
+        <v>0.69080299251870303</v>
       </c>
       <c r="D110">
-        <v>0.25128734396181301</v>
+        <v>8.5885669094603101E-2</v>
       </c>
       <c r="E110">
-        <v>116</v>
+        <v>802</v>
       </c>
       <c r="F110">
-        <v>4.0059999999999998E-2</v>
+        <v>3.092E-2</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>389</v>
+        <v>330</v>
       </c>
       <c r="B111" t="s">
-        <v>390</v>
+        <v>331</v>
       </c>
       <c r="C111">
-        <v>0.47949999999999998</v>
+        <v>1.87078787878788</v>
       </c>
       <c r="D111">
-        <v>0.111527276185395</v>
+        <v>3.5400527075664399</v>
       </c>
       <c r="E111">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F111">
-        <v>4.2360000000000002E-2</v>
+        <v>1.332E-2</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="B112" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="C112">
-        <v>0.59794999999999998</v>
+        <v>1.97575757575758</v>
       </c>
       <c r="D112">
-        <v>6.5170606063906206E-2</v>
+        <v>6.3309183626385499</v>
       </c>
       <c r="E112">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F112">
-        <v>4.2630000000000001E-2</v>
+        <v>1.251E-2</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>86</v>
+        <v>383</v>
       </c>
       <c r="B113" t="s">
-        <v>87</v>
+        <v>384</v>
       </c>
       <c r="C113">
-        <v>0.60663636363636397</v>
+        <v>2.0034999999999998</v>
       </c>
       <c r="D113">
-        <v>0.30397439513951302</v>
+        <v>0.57466712103617001</v>
       </c>
       <c r="E113">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F113">
-        <v>4.65E-2</v>
+        <v>3.2129999999999999E-2</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="B114" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="C114">
-        <v>0.40150000000000002</v>
+        <v>2.02035135135135</v>
       </c>
       <c r="D114">
-        <v>0.13364318164425701</v>
+        <v>1.64169595940391</v>
       </c>
       <c r="E114">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="F114">
-        <v>4.6859999999999999E-2</v>
+        <v>1.3129999999999999E-2</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B115" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C115">
-        <v>0.420186602870813</v>
+        <v>2.1817105263157899</v>
       </c>
       <c r="D115">
-        <v>7.5122519237423802E-2</v>
+        <v>3.23363194606141</v>
       </c>
       <c r="E115">
-        <v>209</v>
+        <v>38</v>
       </c>
       <c r="F115">
-        <v>4.7469999999999998E-2</v>
+        <v>1.336E-2</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>391</v>
+        <v>88</v>
       </c>
       <c r="B116" t="s">
-        <v>392</v>
+        <v>89</v>
       </c>
       <c r="C116">
-        <v>0.48675000000000002</v>
+        <v>2.1863333333333301</v>
       </c>
       <c r="D116">
-        <v>0.10474850834260099</v>
+        <v>0.36647328233674398</v>
       </c>
       <c r="E116">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F116">
-        <v>4.7480000000000001E-2</v>
+        <v>1.7309999999999999E-2</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>190</v>
+        <v>62</v>
       </c>
       <c r="B117" t="s">
-        <v>191</v>
+        <v>63</v>
       </c>
       <c r="C117">
-        <v>0.60813636363636403</v>
+        <v>3.9047499999999999</v>
       </c>
       <c r="D117">
-        <v>8.4540942718135004E-2</v>
+        <v>1.9362502205723999</v>
       </c>
       <c r="E117">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F117">
-        <v>4.8210000000000003E-2</v>
+        <v>6.0499999999999998E-3</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>156</v>
+        <v>286</v>
       </c>
       <c r="B118" t="s">
-        <v>157</v>
+        <v>287</v>
       </c>
       <c r="C118">
-        <v>0.56510000000000005</v>
+        <v>5.2083333333333304</v>
       </c>
       <c r="D118">
-        <v>0.13706644779489699</v>
+        <v>8.9216949436004995</v>
       </c>
       <c r="E118">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F118">
-        <v>4.8840000000000001E-2</v>
+        <v>3.8800000000000002E-3</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>260</v>
+        <v>343</v>
       </c>
       <c r="B119" t="s">
-        <v>261</v>
+        <v>344</v>
       </c>
       <c r="C119">
-        <v>0.56559999999999999</v>
+        <v>7.8120000000000003</v>
       </c>
       <c r="D119">
-        <v>0.11415019345873501</v>
+        <v>2.79570992772855</v>
       </c>
       <c r="E119">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F119">
-        <v>4.8980000000000003E-2</v>
+        <v>2.5899999999999999E-3</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="B120" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="C120">
-        <v>0.63072727272727303</v>
+        <v>14.704499999999999</v>
       </c>
       <c r="D120">
-        <v>0.11036254820116501</v>
+        <v>19.648376128830598</v>
       </c>
       <c r="E120">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="F120">
-        <v>4.9110000000000001E-2</v>
+        <v>1.2999999999999999E-3</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>393</v>
+        <v>339</v>
       </c>
       <c r="B121" t="s">
-        <v>394</v>
+        <v>340</v>
       </c>
       <c r="C121">
-        <v>0.40450000000000003</v>
+        <v>48.133499999999998</v>
       </c>
       <c r="D121">
-        <v>0.18031222920257001</v>
+        <v>19.2127983516197</v>
       </c>
       <c r="E121">
         <v>2</v>
       </c>
       <c r="F121">
-        <v>4.9349999999999998E-2</v>
+        <v>4.6999999999999999E-4</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F369">
-    <sortCondition ref="F2:F369"/>
+  <sortState ref="A2:F121">
+    <sortCondition ref="C42"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10107,7 +10107,7 @@
   <dimension ref="A1:F107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10160,1142 +10160,1142 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>607</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s">
-        <v>608</v>
+        <v>267</v>
       </c>
       <c r="C3">
-        <v>222.78479999999999</v>
+        <v>5.0333333333333299E-2</v>
       </c>
       <c r="D3">
-        <v>211.520895055784</v>
+        <v>5.78129166651652E-2</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>5.1999999999999995E-4</v>
+        <v>1.72E-3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>609</v>
       </c>
       <c r="B4" t="s">
-        <v>267</v>
+        <v>610</v>
       </c>
       <c r="C4">
-        <v>5.0333333333333299E-2</v>
+        <v>5.9499999999999997E-2</v>
       </c>
       <c r="D4">
-        <v>5.78129166651652E-2</v>
+        <v>1.20208152801713E-2</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1.72E-3</v>
+        <v>1.89E-3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>609</v>
+        <v>515</v>
       </c>
       <c r="B5" t="s">
-        <v>610</v>
+        <v>516</v>
       </c>
       <c r="C5">
-        <v>5.9499999999999997E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="D5">
-        <v>1.20208152801713E-2</v>
+        <v>1.6462077633154298E-2</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>1.89E-3</v>
+        <v>2.2399999999999998E-3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>611</v>
+        <v>403</v>
       </c>
       <c r="B6" t="s">
-        <v>612</v>
+        <v>404</v>
       </c>
       <c r="C6">
-        <v>17.995000000000001</v>
+        <v>6.9500000000000006E-2</v>
       </c>
       <c r="D6">
-        <v>19.4256589077436</v>
+        <v>2.9011491975882001E-2</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>1.9599999999999999E-3</v>
+        <v>2.4599999999999999E-3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>515</v>
+        <v>613</v>
       </c>
       <c r="B7" t="s">
-        <v>516</v>
+        <v>614</v>
       </c>
       <c r="C7">
-        <v>6.8000000000000005E-2</v>
+        <v>9.2333333333333295E-2</v>
       </c>
       <c r="D7">
-        <v>1.6462077633154298E-2</v>
+        <v>1.36137185711081E-2</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
       <c r="F7">
-        <v>2.2399999999999998E-3</v>
+        <v>2.3800000000000002E-3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>613</v>
+        <v>176</v>
       </c>
       <c r="B8" t="s">
-        <v>614</v>
+        <v>177</v>
       </c>
       <c r="C8">
-        <v>9.2333333333333295E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="D8">
-        <v>1.36137185711081E-2</v>
+        <v>7.3539105243401001E-2</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>2.3800000000000002E-3</v>
+        <v>3.2399999999999998E-3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B9" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="C9">
-        <v>6.9500000000000006E-2</v>
+        <v>0.101333333333333</v>
       </c>
       <c r="D9">
-        <v>2.9011491975882001E-2</v>
+        <v>0.12983194265408399</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>2.4599999999999999E-3</v>
+        <v>2.8400000000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>413</v>
+        <v>615</v>
       </c>
       <c r="B10" t="s">
-        <v>414</v>
+        <v>616</v>
       </c>
       <c r="C10">
-        <v>0.101333333333333</v>
+        <v>0.1205</v>
       </c>
       <c r="D10">
-        <v>0.12983194265408399</v>
+        <v>0.132228968081884</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>2.8400000000000001E-3</v>
+        <v>4.5799999999999999E-3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="C11">
-        <v>9.7000000000000003E-2</v>
+        <v>0.128</v>
       </c>
       <c r="D11">
-        <v>7.3539105243401001E-2</v>
+        <v>1.4142135623731E-3</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11">
-        <v>3.2399999999999998E-3</v>
+        <v>5.0299999999999997E-3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>306</v>
+        <v>617</v>
       </c>
       <c r="B12" t="s">
-        <v>307</v>
+        <v>618</v>
       </c>
       <c r="C12">
-        <v>0.18360000000000001</v>
+        <v>0.1305</v>
       </c>
       <c r="D12">
-        <v>9.7881561082769797E-2</v>
+        <v>7.8488852711706802E-2</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>4.1000000000000003E-3</v>
+        <v>4.96E-3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="B13" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="C13">
-        <v>0.1205</v>
+        <v>0.14883333333333301</v>
       </c>
       <c r="D13">
-        <v>0.132228968081884</v>
+        <v>0.188075959831837</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F13">
-        <v>4.5799999999999999E-3</v>
+        <v>5.0600000000000003E-3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
       <c r="B14" t="s">
-        <v>620</v>
+        <v>638</v>
       </c>
       <c r="C14">
-        <v>0.182666666666667</v>
+        <v>0.15049999999999999</v>
       </c>
       <c r="D14">
-        <v>0.13354200337971101</v>
+        <v>8.6974134085945301E-2</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>4.96E-3</v>
+        <v>7.2199999999999999E-3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>617</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>618</v>
+        <v>85</v>
       </c>
       <c r="C15">
-        <v>0.1305</v>
+        <v>0.16828571428571401</v>
       </c>
       <c r="D15">
-        <v>7.8488852711706802E-2</v>
+        <v>8.3689334815762295E-2</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F15">
-        <v>4.96E-3</v>
+        <v>5.3499999999999997E-3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>629</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>630</v>
       </c>
       <c r="C16">
-        <v>0.128</v>
+        <v>0.17142857142857101</v>
       </c>
       <c r="D16">
-        <v>1.4142135623731E-3</v>
+        <v>7.2313800303162798E-2</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F16">
-        <v>5.0299999999999997E-3</v>
+        <v>5.96E-3</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>621</v>
+        <v>647</v>
       </c>
       <c r="B17" t="s">
-        <v>622</v>
+        <v>648</v>
       </c>
       <c r="C17">
-        <v>0.14883333333333301</v>
+        <v>0.17549999999999999</v>
       </c>
       <c r="D17">
-        <v>0.188075959831837</v>
+        <v>7.77817459305201E-3</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>5.0600000000000003E-3</v>
+        <v>1.159E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B18" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C18">
-        <v>4.8817500000000003</v>
+        <v>0.182666666666667</v>
       </c>
       <c r="D18">
-        <v>8.5169596052034109</v>
+        <v>0.13354200337971101</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F18">
-        <v>5.1200000000000004E-3</v>
+        <v>4.96E-3</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>306</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>307</v>
       </c>
       <c r="C19">
-        <v>0.16828571428571401</v>
+        <v>0.18360000000000001</v>
       </c>
       <c r="D19">
-        <v>8.3689334815762295E-2</v>
+        <v>9.7881561082769797E-2</v>
       </c>
       <c r="E19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F19">
-        <v>5.3499999999999997E-3</v>
+        <v>4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>625</v>
+        <v>589</v>
       </c>
       <c r="B20" t="s">
-        <v>626</v>
+        <v>590</v>
       </c>
       <c r="C20">
-        <v>0.21825</v>
+        <v>0.18725</v>
       </c>
       <c r="D20">
-        <v>3.8947614389929802E-2</v>
+        <v>0.18560262210791501</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F20">
-        <v>5.4099999999999999E-3</v>
+        <v>8.0300000000000007E-3</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="B21" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C21">
-        <v>0.24099999999999999</v>
+        <v>0.18912499999999999</v>
       </c>
       <c r="D21">
-        <v>0.15779945078062399</v>
+        <v>6.8630350428946496E-2</v>
       </c>
       <c r="E21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F21">
-        <v>5.8399999999999997E-3</v>
+        <v>6.5599999999999999E-3</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>593</v>
+        <v>663</v>
       </c>
       <c r="B22" t="s">
-        <v>594</v>
+        <v>664</v>
       </c>
       <c r="C22">
-        <v>0.21024999999999999</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="D22">
-        <v>9.9171148358111999E-2</v>
+        <v>6.9296464556281703E-2</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>5.8599999999999998E-3</v>
+        <v>1.745E-2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>318</v>
+        <v>563</v>
       </c>
       <c r="B23" t="s">
-        <v>319</v>
+        <v>564</v>
       </c>
       <c r="C23">
-        <v>0.25</v>
+        <v>0.20549999999999999</v>
       </c>
       <c r="D23">
-        <v>0.20632498636859301</v>
+        <v>0.113844191771034</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>5.9100000000000003E-3</v>
+        <v>1.8499999999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>629</v>
+        <v>593</v>
       </c>
       <c r="B24" t="s">
-        <v>630</v>
+        <v>594</v>
       </c>
       <c r="C24">
-        <v>0.17142857142857101</v>
+        <v>0.21024999999999999</v>
       </c>
       <c r="D24">
-        <v>7.2313800303162798E-2</v>
+        <v>9.9171148358111999E-2</v>
       </c>
       <c r="E24">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F24">
-        <v>5.96E-3</v>
+        <v>5.8599999999999998E-3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="B25" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="C25">
-        <v>0.18912499999999999</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="D25">
-        <v>6.8630350428946496E-2</v>
+        <v>7.9567581338130397E-2</v>
       </c>
       <c r="E25">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>6.5599999999999999E-3</v>
+        <v>7.92E-3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="B26" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="C26">
-        <v>0.24199999999999999</v>
+        <v>0.21825</v>
       </c>
       <c r="D26">
-        <v>0.12047683041426099</v>
+        <v>3.8947614389929802E-2</v>
       </c>
       <c r="E26">
         <v>4</v>
       </c>
       <c r="F26">
-        <v>7.1999999999999998E-3</v>
+        <v>5.4099999999999999E-3</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>635</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>636</v>
+        <v>49</v>
       </c>
       <c r="C27">
-        <v>0.29442857142857098</v>
+        <v>0.23150000000000001</v>
       </c>
       <c r="D27">
-        <v>0.206236803329617</v>
+        <v>5.5861435713737299E-2</v>
       </c>
       <c r="E27">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>7.2100000000000003E-3</v>
+        <v>2.664E-2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>637</v>
+        <v>539</v>
       </c>
       <c r="B28" t="s">
-        <v>638</v>
+        <v>540</v>
       </c>
       <c r="C28">
-        <v>0.15049999999999999</v>
+        <v>0.23275555555555599</v>
       </c>
       <c r="D28">
-        <v>8.6974134085945301E-2</v>
+        <v>0.221082271354061</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="F28">
-        <v>7.2199999999999999E-3</v>
+        <v>1.8079999999999999E-2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="B29" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="C29">
-        <v>0.21299999999999999</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="D29">
-        <v>7.9567581338130397E-2</v>
+        <v>0.15779945078062399</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F29">
-        <v>7.92E-3</v>
+        <v>5.8399999999999997E-3</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>589</v>
+        <v>633</v>
       </c>
       <c r="B30" t="s">
-        <v>590</v>
+        <v>634</v>
       </c>
       <c r="C30">
-        <v>0.18725</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="D30">
-        <v>0.18560262210791501</v>
+        <v>0.12047683041426099</v>
       </c>
       <c r="E30">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F30">
-        <v>8.0300000000000007E-3</v>
+        <v>7.1999999999999998E-3</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>641</v>
+        <v>318</v>
       </c>
       <c r="B31" t="s">
-        <v>642</v>
+        <v>319</v>
       </c>
       <c r="C31">
-        <v>3.8912499999999999</v>
+        <v>0.25</v>
       </c>
       <c r="D31">
-        <v>5.2111976470545303</v>
+        <v>0.20632498636859301</v>
       </c>
       <c r="E31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F31">
-        <v>8.6400000000000001E-3</v>
+        <v>5.9100000000000003E-3</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>643</v>
+        <v>657</v>
       </c>
       <c r="B32" t="s">
-        <v>644</v>
+        <v>658</v>
       </c>
       <c r="C32">
-        <v>0.30449999999999999</v>
+        <v>0.253</v>
       </c>
       <c r="D32">
-        <v>0.249968598027832</v>
+        <v>4.2532340636273501E-2</v>
       </c>
       <c r="E32">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>9.6699999999999998E-3</v>
+        <v>1.617E-2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>375</v>
+        <v>254</v>
       </c>
       <c r="B33" t="s">
-        <v>376</v>
+        <v>255</v>
       </c>
       <c r="C33">
-        <v>0.27164285714285702</v>
+        <v>0.26250000000000001</v>
       </c>
       <c r="D33">
-        <v>0.13245760258858899</v>
+        <v>9.1923881554251304E-3</v>
       </c>
       <c r="E33">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>9.8700000000000003E-3</v>
+        <v>4.3189999999999999E-2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>645</v>
+        <v>214</v>
       </c>
       <c r="B34" t="s">
-        <v>646</v>
+        <v>215</v>
       </c>
       <c r="C34">
-        <v>0.33800000000000002</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="D34">
-        <v>0.30688853257913001</v>
+        <v>7.50199973340442E-2</v>
       </c>
       <c r="E34">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>9.9500000000000005E-3</v>
+        <v>1.9279999999999999E-2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="B35" t="s">
-        <v>418</v>
+        <v>376</v>
       </c>
       <c r="C35">
-        <v>7.7347777777777802</v>
+        <v>0.27164285714285702</v>
       </c>
       <c r="D35">
-        <v>15.2981984637055</v>
+        <v>0.13245760258858899</v>
       </c>
       <c r="E35">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F35">
-        <v>1.0580000000000001E-2</v>
+        <v>9.8700000000000003E-3</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>533</v>
+        <v>431</v>
       </c>
       <c r="B36" t="s">
-        <v>534</v>
+        <v>432</v>
       </c>
       <c r="C36">
-        <v>0.306307692307692</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D36">
-        <v>0.16728039565122599</v>
+        <v>0.236036014201223</v>
       </c>
       <c r="E36">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>1.085E-2</v>
+        <v>2.274E-2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>591</v>
+        <v>104</v>
       </c>
       <c r="B37" t="s">
-        <v>592</v>
+        <v>105</v>
       </c>
       <c r="C37">
-        <v>0.33576923076923099</v>
+        <v>0.28266666666666701</v>
       </c>
       <c r="D37">
-        <v>0.15022824515059</v>
+        <v>0.34003284155112601</v>
       </c>
       <c r="E37">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>1.1010000000000001E-2</v>
+        <v>2.444E-2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>691</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>692</v>
       </c>
       <c r="C38">
-        <v>0.35099999999999998</v>
+        <v>0.29366666666666702</v>
       </c>
       <c r="D38">
-        <v>0.17591825024491001</v>
+        <v>0.15834877117721299</v>
       </c>
       <c r="E38">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F38">
-        <v>1.103E-2</v>
+        <v>2.809E-2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>605</v>
+        <v>635</v>
       </c>
       <c r="B39" t="s">
-        <v>606</v>
+        <v>636</v>
       </c>
       <c r="C39">
-        <v>0.33657142857142902</v>
+        <v>0.29442857142857098</v>
       </c>
       <c r="D39">
-        <v>0.16970450508934401</v>
+        <v>0.206236803329617</v>
       </c>
       <c r="E39">
         <v>7</v>
       </c>
       <c r="F39">
-        <v>1.106E-2</v>
+        <v>7.2100000000000003E-3</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B40" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C40">
-        <v>0.17549999999999999</v>
+        <v>0.29603846153846203</v>
       </c>
       <c r="D40">
-        <v>7.77817459305201E-3</v>
+        <v>0.221754365146525</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="F40">
-        <v>1.159E-2</v>
+        <v>1.316E-2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>507</v>
+        <v>429</v>
       </c>
       <c r="B41" t="s">
-        <v>508</v>
+        <v>430</v>
       </c>
       <c r="C41">
-        <v>0.376</v>
+        <v>0.29949999999999999</v>
       </c>
       <c r="D41">
-        <v>0.113348339881298</v>
+        <v>0.35682441994161002</v>
       </c>
       <c r="E41">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F41">
-        <v>1.2E-2</v>
+        <v>1.704E-2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>118</v>
+        <v>643</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
+        <v>644</v>
       </c>
       <c r="C42">
-        <v>0.32983333333333298</v>
+        <v>0.30449999999999999</v>
       </c>
       <c r="D42">
-        <v>1.6142077520154199E-2</v>
+        <v>0.249968598027832</v>
       </c>
       <c r="E42">
         <v>6</v>
       </c>
       <c r="F42">
-        <v>1.252E-2</v>
+        <v>9.6699999999999998E-3</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>385</v>
+        <v>533</v>
       </c>
       <c r="B43" t="s">
-        <v>386</v>
+        <v>534</v>
       </c>
       <c r="C43">
-        <v>0.37856250000000002</v>
+        <v>0.306307692307692</v>
       </c>
       <c r="D43">
-        <v>0.15032629787676299</v>
+        <v>0.16728039565122599</v>
       </c>
       <c r="E43">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F43">
-        <v>1.252E-2</v>
+        <v>1.085E-2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>603</v>
+        <v>653</v>
       </c>
       <c r="B44" t="s">
-        <v>604</v>
+        <v>654</v>
       </c>
       <c r="C44">
-        <v>0.35393333333333299</v>
+        <v>0.3206</v>
       </c>
       <c r="D44">
-        <v>0.37014330558132003</v>
+        <v>0.28820704363356597</v>
       </c>
       <c r="E44">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F44">
-        <v>1.2749999999999999E-2</v>
+        <v>1.485E-2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>409</v>
+        <v>118</v>
       </c>
       <c r="B45" t="s">
-        <v>410</v>
+        <v>119</v>
       </c>
       <c r="C45">
-        <v>0.36643750000000003</v>
+        <v>0.32983333333333298</v>
       </c>
       <c r="D45">
-        <v>0.20651810856839301</v>
+        <v>1.6142077520154199E-2</v>
       </c>
       <c r="E45">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F45">
-        <v>1.29E-2</v>
+        <v>1.252E-2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>649</v>
+        <v>707</v>
       </c>
       <c r="B46" t="s">
-        <v>650</v>
+        <v>708</v>
       </c>
       <c r="C46">
-        <v>0.29603846153846203</v>
+        <v>0.332666666666667</v>
       </c>
       <c r="D46">
-        <v>0.221754365146525</v>
+        <v>9.3735443314326594E-2</v>
       </c>
       <c r="E46">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="F46">
-        <v>1.316E-2</v>
+        <v>4.7129999999999998E-2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>651</v>
+        <v>288</v>
       </c>
       <c r="B47" t="s">
-        <v>652</v>
+        <v>289</v>
       </c>
       <c r="C47">
-        <v>0.39509090909090899</v>
+        <v>0.33279999999999998</v>
       </c>
       <c r="D47">
-        <v>0.21177367850866399</v>
+        <v>1.6346253393362001E-2</v>
       </c>
       <c r="E47">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F47">
-        <v>1.482E-2</v>
+        <v>1.7770000000000001E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>653</v>
+        <v>591</v>
       </c>
       <c r="B48" t="s">
-        <v>654</v>
+        <v>592</v>
       </c>
       <c r="C48">
-        <v>0.3206</v>
+        <v>0.33576923076923099</v>
       </c>
       <c r="D48">
-        <v>0.28820704363356597</v>
+        <v>0.15022824515059</v>
       </c>
       <c r="E48">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F48">
-        <v>1.485E-2</v>
+        <v>1.1010000000000001E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>567</v>
+        <v>605</v>
       </c>
       <c r="B49" t="s">
-        <v>568</v>
+        <v>606</v>
       </c>
       <c r="C49">
-        <v>0.40738461538461501</v>
+        <v>0.33657142857142902</v>
       </c>
       <c r="D49">
-        <v>0.171163926525392</v>
+        <v>0.16970450508934401</v>
       </c>
       <c r="E49">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F49">
-        <v>1.4970000000000001E-2</v>
+        <v>1.106E-2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="B50" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="C50">
-        <v>0.41111111111111098</v>
+        <v>0.33797560975609803</v>
       </c>
       <c r="D50">
-        <v>0.27058278908983502</v>
+        <v>0.243178688190894</v>
       </c>
       <c r="E50">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F50">
-        <v>1.4999999999999999E-2</v>
+        <v>1.685E-2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>397</v>
+        <v>645</v>
       </c>
       <c r="B51" t="s">
-        <v>398</v>
+        <v>646</v>
       </c>
       <c r="C51">
-        <v>0.37175000000000002</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="D51">
-        <v>0.22781054158476299</v>
+        <v>0.30688853257913001</v>
       </c>
       <c r="E51">
         <v>8</v>
       </c>
       <c r="F51">
-        <v>1.512E-2</v>
+        <v>9.9500000000000005E-3</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>657</v>
+        <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>658</v>
+        <v>71</v>
       </c>
       <c r="C52">
-        <v>0.253</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="D52">
-        <v>4.2532340636273501E-2</v>
+        <v>0.17591825024491001</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F52">
-        <v>1.617E-2</v>
+        <v>1.103E-2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>659</v>
+        <v>603</v>
       </c>
       <c r="B53" t="s">
-        <v>660</v>
+        <v>604</v>
       </c>
       <c r="C53">
-        <v>0.37824999999999998</v>
+        <v>0.35393333333333299</v>
       </c>
       <c r="D53">
-        <v>0.27087675109856602</v>
+        <v>0.37014330558132003</v>
       </c>
       <c r="E53">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F53">
-        <v>1.6559999999999998E-2</v>
+        <v>1.2749999999999999E-2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>661</v>
+        <v>409</v>
       </c>
       <c r="B54" t="s">
-        <v>662</v>
+        <v>410</v>
       </c>
       <c r="C54">
-        <v>0.33797560975609803</v>
+        <v>0.36643750000000003</v>
       </c>
       <c r="D54">
-        <v>0.243178688190894</v>
+        <v>0.20651810856839301</v>
       </c>
       <c r="E54">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F54">
-        <v>1.685E-2</v>
+        <v>1.29E-2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>429</v>
+        <v>489</v>
       </c>
       <c r="B55" t="s">
-        <v>430</v>
+        <v>490</v>
       </c>
       <c r="C55">
-        <v>0.29949999999999999</v>
+        <v>0.37</v>
       </c>
       <c r="D55">
-        <v>0.35682441994161002</v>
+        <v>0.22095587794851701</v>
       </c>
       <c r="E55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F55">
-        <v>1.704E-2</v>
+        <v>3.313E-2</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>663</v>
+        <v>397</v>
       </c>
       <c r="B56" t="s">
-        <v>664</v>
+        <v>398</v>
       </c>
       <c r="C56">
-        <v>0.20300000000000001</v>
+        <v>0.37175000000000002</v>
       </c>
       <c r="D56">
-        <v>6.9296464556281703E-2</v>
+        <v>0.22781054158476299</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F56">
-        <v>1.745E-2</v>
+        <v>1.512E-2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>288</v>
+        <v>507</v>
       </c>
       <c r="B57" t="s">
-        <v>289</v>
+        <v>508</v>
       </c>
       <c r="C57">
-        <v>0.33279999999999998</v>
+        <v>0.376</v>
       </c>
       <c r="D57">
-        <v>1.6346253393362001E-2</v>
+        <v>0.113348339881298</v>
       </c>
       <c r="E57">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F57">
-        <v>1.7770000000000001E-2</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>539</v>
+        <v>659</v>
       </c>
       <c r="B58" t="s">
-        <v>540</v>
+        <v>660</v>
       </c>
       <c r="C58">
-        <v>0.23275555555555599</v>
+        <v>0.37824999999999998</v>
       </c>
       <c r="D58">
-        <v>0.221082271354061</v>
+        <v>0.27087675109856602</v>
       </c>
       <c r="E58">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="F58">
-        <v>1.8079999999999999E-2</v>
+        <v>1.6559999999999998E-2</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>665</v>
+        <v>385</v>
       </c>
       <c r="B59" t="s">
-        <v>666</v>
+        <v>386</v>
       </c>
       <c r="C59">
-        <v>0.42699999999999999</v>
+        <v>0.37856250000000002</v>
       </c>
       <c r="D59">
-        <v>0.23393214828236</v>
+        <v>0.15032629787676299</v>
       </c>
       <c r="E59">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F59">
-        <v>1.8120000000000001E-2</v>
+        <v>1.252E-2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -11320,302 +11320,302 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>563</v>
+        <v>671</v>
       </c>
       <c r="B61" t="s">
-        <v>564</v>
+        <v>672</v>
       </c>
       <c r="C61">
-        <v>0.20549999999999999</v>
+        <v>0.39414285714285702</v>
       </c>
       <c r="D61">
-        <v>0.113844191771034</v>
+        <v>0.24960725945397799</v>
       </c>
       <c r="E61">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="F61">
-        <v>1.8499999999999999E-2</v>
+        <v>2.0619999999999999E-2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>214</v>
+        <v>667</v>
       </c>
       <c r="B62" t="s">
-        <v>215</v>
+        <v>668</v>
       </c>
       <c r="C62">
-        <v>0.26800000000000002</v>
+        <v>0.39462962962963</v>
       </c>
       <c r="D62">
-        <v>7.50199973340442E-2</v>
+        <v>0.28014668522430403</v>
       </c>
       <c r="E62">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F62">
-        <v>1.9279999999999999E-2</v>
+        <v>1.9380000000000001E-2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="B63" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="C63">
-        <v>0.39462962962963</v>
+        <v>0.39509090909090899</v>
       </c>
       <c r="D63">
-        <v>0.28014668522430403</v>
+        <v>0.21177367850866399</v>
       </c>
       <c r="E63">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F63">
-        <v>1.9380000000000001E-2</v>
+        <v>1.482E-2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>669</v>
+        <v>567</v>
       </c>
       <c r="B64" t="s">
-        <v>670</v>
+        <v>568</v>
       </c>
       <c r="C64">
-        <v>0.42713157894736797</v>
+        <v>0.40738461538461501</v>
       </c>
       <c r="D64">
-        <v>0.30745099992388403</v>
+        <v>0.171163926525392</v>
       </c>
       <c r="E64">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="F64">
-        <v>1.9699999999999999E-2</v>
+        <v>1.4970000000000001E-2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>595</v>
+        <v>655</v>
       </c>
       <c r="B65" t="s">
-        <v>596</v>
+        <v>656</v>
       </c>
       <c r="C65">
-        <v>0.4521</v>
+        <v>0.41111111111111098</v>
       </c>
       <c r="D65">
-        <v>0.244519485823458</v>
+        <v>0.27058278908983502</v>
       </c>
       <c r="E65">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F65">
-        <v>1.9730000000000001E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>671</v>
+        <v>703</v>
       </c>
       <c r="B66" t="s">
-        <v>672</v>
+        <v>704</v>
       </c>
       <c r="C66">
-        <v>0.39414285714285702</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="D66">
-        <v>0.24960725945397799</v>
+        <v>0.126928326231775</v>
       </c>
       <c r="E66">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="F66">
-        <v>2.0619999999999999E-2</v>
+        <v>4.6350000000000002E-2</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B67" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C67">
-        <v>0.45964705882352902</v>
+        <v>0.41974074074074103</v>
       </c>
       <c r="D67">
-        <v>0.201786998211131</v>
+        <v>0.22239249556237201</v>
       </c>
       <c r="E67">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F67">
-        <v>2.1770000000000001E-2</v>
+        <v>2.188E-2</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="B68" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="C68">
-        <v>0.41974074074074103</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="D68">
-        <v>0.22239249556237201</v>
+        <v>0.23393214828236</v>
       </c>
       <c r="E68">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="F68">
-        <v>2.188E-2</v>
+        <v>1.8120000000000001E-2</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="B69" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="C69">
-        <v>0.46479166666666699</v>
+        <v>0.42713157894736797</v>
       </c>
       <c r="D69">
-        <v>0.25994179602141798</v>
+        <v>0.30745099992388403</v>
       </c>
       <c r="E69">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F69">
-        <v>2.24E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>431</v>
+        <v>697</v>
       </c>
       <c r="B70" t="s">
-        <v>432</v>
+        <v>698</v>
       </c>
       <c r="C70">
-        <v>0.28000000000000003</v>
+        <v>0.42980392156862701</v>
       </c>
       <c r="D70">
-        <v>0.236036014201223</v>
+        <v>0.24756253492267399</v>
       </c>
       <c r="E70">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="F70">
-        <v>2.274E-2</v>
+        <v>3.6450000000000003E-2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>679</v>
+        <v>595</v>
       </c>
       <c r="B71" t="s">
-        <v>680</v>
+        <v>596</v>
       </c>
       <c r="C71">
-        <v>0.47916666666666702</v>
+        <v>0.4521</v>
       </c>
       <c r="D71">
-        <v>0.228175534868758</v>
+        <v>0.244519485823458</v>
       </c>
       <c r="E71">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F71">
-        <v>2.367E-2</v>
+        <v>1.9730000000000001E-2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>104</v>
+        <v>673</v>
       </c>
       <c r="B72" t="s">
-        <v>105</v>
+        <v>674</v>
       </c>
       <c r="C72">
-        <v>0.28266666666666701</v>
+        <v>0.45964705882352902</v>
       </c>
       <c r="D72">
-        <v>0.34003284155112601</v>
+        <v>0.201786998211131</v>
       </c>
       <c r="E72">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F72">
-        <v>2.444E-2</v>
+        <v>2.1770000000000001E-2</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>681</v>
+        <v>232</v>
       </c>
       <c r="B73" t="s">
-        <v>682</v>
+        <v>233</v>
       </c>
       <c r="C73">
-        <v>0.48178571428571398</v>
+        <v>0.46387931034482799</v>
       </c>
       <c r="D73">
-        <v>0.24261970808514899</v>
+        <v>0.16772701191143199</v>
       </c>
       <c r="E73">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="F73">
-        <v>2.461E-2</v>
+        <v>3.8960000000000002E-2</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="B74" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="C74">
-        <v>0.47927999999999998</v>
+        <v>0.46479166666666699</v>
       </c>
       <c r="D74">
-        <v>0.23688772305320799</v>
+        <v>0.25994179602141798</v>
       </c>
       <c r="E74">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F74">
-        <v>2.469E-2</v>
+        <v>2.24E-2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>685</v>
+        <v>86</v>
       </c>
       <c r="B75" t="s">
-        <v>686</v>
+        <v>87</v>
       </c>
       <c r="C75">
-        <v>0.48812121212121201</v>
+        <v>0.46486666666666698</v>
       </c>
       <c r="D75">
-        <v>0.14776052364716599</v>
+        <v>0.231315451483981</v>
       </c>
       <c r="E75">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F75">
-        <v>2.5360000000000001E-2</v>
+        <v>3.032E-2</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -11640,627 +11640,627 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>689</v>
+        <v>439</v>
       </c>
       <c r="B77" t="s">
-        <v>690</v>
+        <v>440</v>
       </c>
       <c r="C77">
-        <v>0.48068571428571399</v>
+        <v>0.47660000000000002</v>
       </c>
       <c r="D77">
-        <v>0.24324760701665199</v>
+        <v>0.14248861118190001</v>
       </c>
       <c r="E77">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="F77">
-        <v>2.615E-2</v>
+        <v>4.3130000000000002E-2</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>48</v>
+        <v>679</v>
       </c>
       <c r="B78" t="s">
-        <v>49</v>
+        <v>680</v>
       </c>
       <c r="C78">
-        <v>0.23150000000000001</v>
+        <v>0.47916666666666702</v>
       </c>
       <c r="D78">
-        <v>5.5861435713737299E-2</v>
+        <v>0.228175534868758</v>
       </c>
       <c r="E78">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F78">
-        <v>2.664E-2</v>
+        <v>2.367E-2</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>202</v>
+        <v>683</v>
       </c>
       <c r="B79" t="s">
-        <v>203</v>
+        <v>684</v>
       </c>
       <c r="C79">
-        <v>0.48875999999999997</v>
+        <v>0.47927999999999998</v>
       </c>
       <c r="D79">
-        <v>0.22279031247640299</v>
+        <v>0.23688772305320799</v>
       </c>
       <c r="E79">
         <v>25</v>
       </c>
       <c r="F79">
-        <v>2.7550000000000002E-2</v>
+        <v>2.469E-2</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B80" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C80">
-        <v>0.29366666666666702</v>
+        <v>0.48068571428571399</v>
       </c>
       <c r="D80">
-        <v>0.15834877117721299</v>
+        <v>0.24324760701665199</v>
       </c>
       <c r="E80">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="F80">
-        <v>2.809E-2</v>
+        <v>2.615E-2</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="B81" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="C81">
-        <v>0.513636363636364</v>
+        <v>0.48127500000000001</v>
       </c>
       <c r="D81">
-        <v>0.252521166229565</v>
+        <v>0.169553291614993</v>
       </c>
       <c r="E81">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="F81">
-        <v>2.8740000000000002E-2</v>
+        <v>4.4650000000000002E-2</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>681</v>
       </c>
       <c r="B82" t="s">
-        <v>87</v>
+        <v>682</v>
       </c>
       <c r="C82">
-        <v>0.46486666666666698</v>
+        <v>0.48178571428571398</v>
       </c>
       <c r="D82">
-        <v>0.231315451483981</v>
+        <v>0.24261970808514899</v>
       </c>
       <c r="E82">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F82">
-        <v>3.032E-2</v>
+        <v>2.461E-2</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>693</v>
+        <v>236</v>
       </c>
       <c r="B83" t="s">
-        <v>694</v>
+        <v>237</v>
       </c>
       <c r="C83">
-        <v>0.529917808219178</v>
+        <v>0.48546835443038</v>
       </c>
       <c r="D83">
-        <v>0.26133746560426901</v>
+        <v>0.216974052297353</v>
       </c>
       <c r="E83">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F83">
-        <v>3.1530000000000002E-2</v>
+        <v>3.1800000000000002E-2</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>236</v>
+        <v>475</v>
       </c>
       <c r="B84" t="s">
-        <v>237</v>
+        <v>476</v>
       </c>
       <c r="C84">
-        <v>0.48546835443038</v>
+        <v>0.48740740740740701</v>
       </c>
       <c r="D84">
-        <v>0.216974052297353</v>
+        <v>0.293635180869807</v>
       </c>
       <c r="E84">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F84">
-        <v>3.1800000000000002E-2</v>
+        <v>3.2129999999999999E-2</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>475</v>
+        <v>685</v>
       </c>
       <c r="B85" t="s">
-        <v>476</v>
+        <v>686</v>
       </c>
       <c r="C85">
-        <v>0.48740740740740701</v>
+        <v>0.48812121212121201</v>
       </c>
       <c r="D85">
-        <v>0.293635180869807</v>
+        <v>0.14776052364716599</v>
       </c>
       <c r="E85">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="F85">
-        <v>3.2129999999999999E-2</v>
+        <v>2.5360000000000001E-2</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>491</v>
+        <v>202</v>
       </c>
       <c r="B86" t="s">
-        <v>492</v>
+        <v>203</v>
       </c>
       <c r="C86">
-        <v>0.51615189873417699</v>
+        <v>0.48875999999999997</v>
       </c>
       <c r="D86">
-        <v>0.28430225377713603</v>
+        <v>0.22279031247640299</v>
       </c>
       <c r="E86">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="F86">
-        <v>3.2219999999999999E-2</v>
+        <v>2.7550000000000002E-2</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>489</v>
+        <v>399</v>
       </c>
       <c r="B87" t="s">
-        <v>490</v>
+        <v>400</v>
       </c>
       <c r="C87">
-        <v>0.37</v>
+        <v>0.49664999999999998</v>
       </c>
       <c r="D87">
-        <v>0.22095587794851701</v>
+        <v>0.15549928921820999</v>
       </c>
       <c r="E87">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F87">
-        <v>3.313E-2</v>
+        <v>3.918E-2</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>695</v>
+        <v>705</v>
       </c>
       <c r="B88" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="C88">
-        <v>0.51294871794871799</v>
+        <v>0.502</v>
       </c>
       <c r="D88">
-        <v>0.21378948680738699</v>
+        <v>0.27830658554111798</v>
       </c>
       <c r="E88">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="F88">
-        <v>3.3849999999999998E-2</v>
+        <v>4.6699999999999998E-2</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>697</v>
+        <v>599</v>
       </c>
       <c r="B89" t="s">
-        <v>698</v>
+        <v>600</v>
       </c>
       <c r="C89">
-        <v>0.42980392156862701</v>
+        <v>0.50616814159292001</v>
       </c>
       <c r="D89">
-        <v>0.24756253492267399</v>
+        <v>0.263745849752549</v>
       </c>
       <c r="E89">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F89">
-        <v>3.6450000000000003E-2</v>
+        <v>4.4670000000000001E-2</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>495</v>
+        <v>415</v>
       </c>
       <c r="B90" t="s">
-        <v>496</v>
+        <v>416</v>
       </c>
       <c r="C90">
-        <v>0.54062121212121195</v>
+        <v>0.50904761904761897</v>
       </c>
       <c r="D90">
-        <v>0.18824303155160599</v>
+        <v>0.13503017299495601</v>
       </c>
       <c r="E90">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="F90">
-        <v>3.6609999999999997E-2</v>
+        <v>4.8030000000000003E-2</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B91" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C91">
-        <v>1.9930434782608699</v>
+        <v>0.51294871794871799</v>
       </c>
       <c r="D91">
-        <v>0.41010148170476401</v>
+        <v>0.21378948680738699</v>
       </c>
       <c r="E91">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F91">
-        <v>3.7719999999999997E-2</v>
+        <v>3.3849999999999998E-2</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="B92" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="C92">
-        <v>0.46387931034482799</v>
+        <v>0.513636363636364</v>
       </c>
       <c r="D92">
-        <v>0.16772701191143199</v>
+        <v>0.252521166229565</v>
       </c>
       <c r="E92">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="F92">
-        <v>3.8960000000000002E-2</v>
+        <v>2.8740000000000002E-2</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>399</v>
+        <v>491</v>
       </c>
       <c r="B93" t="s">
-        <v>400</v>
+        <v>492</v>
       </c>
       <c r="C93">
-        <v>0.49664999999999998</v>
+        <v>0.51615189873417699</v>
       </c>
       <c r="D93">
-        <v>0.15549928921820999</v>
+        <v>0.28430225377713603</v>
       </c>
       <c r="E93">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="F93">
-        <v>3.918E-2</v>
+        <v>3.2219999999999999E-2</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>395</v>
+        <v>693</v>
       </c>
       <c r="B94" t="s">
-        <v>396</v>
+        <v>694</v>
       </c>
       <c r="C94">
-        <v>0.551870588235294</v>
+        <v>0.529917808219178</v>
       </c>
       <c r="D94">
-        <v>0.15116285669336099</v>
+        <v>0.26133746560426901</v>
       </c>
       <c r="E94">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F94">
-        <v>4.0079999999999998E-2</v>
+        <v>3.1530000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>106</v>
+        <v>701</v>
       </c>
       <c r="B95" t="s">
-        <v>107</v>
+        <v>702</v>
       </c>
       <c r="C95">
-        <v>0.53808333333333302</v>
+        <v>0.53016666666666701</v>
       </c>
       <c r="D95">
-        <v>0.14202559453685101</v>
+        <v>0.15023541147741601</v>
       </c>
       <c r="E95">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F95">
-        <v>4.0189999999999997E-2</v>
+        <v>4.0320000000000002E-2</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>701</v>
+        <v>106</v>
       </c>
       <c r="B96" t="s">
-        <v>702</v>
+        <v>107</v>
       </c>
       <c r="C96">
-        <v>0.53016666666666701</v>
+        <v>0.53808333333333302</v>
       </c>
       <c r="D96">
-        <v>0.15023541147741601</v>
+        <v>0.14202559453685101</v>
       </c>
       <c r="E96">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F96">
-        <v>4.0320000000000002E-2</v>
+        <v>4.0189999999999997E-2</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>597</v>
+        <v>495</v>
       </c>
       <c r="B97" t="s">
-        <v>598</v>
+        <v>496</v>
       </c>
       <c r="C97">
-        <v>0.54069387755102005</v>
+        <v>0.54062121212121195</v>
       </c>
       <c r="D97">
-        <v>0.34714047373275497</v>
+        <v>0.18824303155160599</v>
       </c>
       <c r="E97">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F97">
-        <v>4.215E-2</v>
+        <v>3.6609999999999997E-2</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>324</v>
+        <v>597</v>
       </c>
       <c r="B98" t="s">
-        <v>325</v>
+        <v>598</v>
       </c>
       <c r="C98">
-        <v>0.55883908045977004</v>
+        <v>0.54069387755102005</v>
       </c>
       <c r="D98">
-        <v>0.185933651179675</v>
+        <v>0.34714047373275497</v>
       </c>
       <c r="E98">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="F98">
-        <v>4.2389999999999997E-2</v>
+        <v>4.215E-2</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>439</v>
+        <v>395</v>
       </c>
       <c r="B99" t="s">
-        <v>440</v>
+        <v>396</v>
       </c>
       <c r="C99">
-        <v>0.47660000000000002</v>
+        <v>0.551870588235294</v>
       </c>
       <c r="D99">
-        <v>0.14248861118190001</v>
+        <v>0.15116285669336099</v>
       </c>
       <c r="E99">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="F99">
-        <v>4.3130000000000002E-2</v>
+        <v>4.0079999999999998E-2</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>254</v>
+        <v>324</v>
       </c>
       <c r="B100" t="s">
-        <v>255</v>
+        <v>325</v>
       </c>
       <c r="C100">
-        <v>0.26250000000000001</v>
+        <v>0.55883908045977004</v>
       </c>
       <c r="D100">
-        <v>9.1923881554251304E-3</v>
+        <v>0.185933651179675</v>
       </c>
       <c r="E100">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="F100">
-        <v>4.3189999999999999E-2</v>
+        <v>4.2389999999999997E-2</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>172</v>
+        <v>601</v>
       </c>
       <c r="B101" t="s">
-        <v>173</v>
+        <v>602</v>
       </c>
       <c r="C101">
-        <v>0.48127500000000001</v>
+        <v>0.55913157894736798</v>
       </c>
       <c r="D101">
-        <v>0.169553291614993</v>
+        <v>0.31522902232514799</v>
       </c>
       <c r="E101">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F101">
-        <v>4.4650000000000002E-2</v>
+        <v>4.8719999999999999E-2</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>599</v>
+        <v>699</v>
       </c>
       <c r="B102" t="s">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="C102">
-        <v>0.50616814159292001</v>
+        <v>1.9930434782608699</v>
       </c>
       <c r="D102">
-        <v>0.263745849752549</v>
+        <v>0.41010148170476401</v>
       </c>
       <c r="E102">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="F102">
-        <v>4.4670000000000001E-2</v>
+        <v>3.7719999999999997E-2</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>703</v>
+        <v>641</v>
       </c>
       <c r="B103" t="s">
-        <v>704</v>
+        <v>642</v>
       </c>
       <c r="C103">
-        <v>0.41299999999999998</v>
+        <v>3.8912499999999999</v>
       </c>
       <c r="D103">
-        <v>0.126928326231775</v>
+        <v>5.2111976470545303</v>
       </c>
       <c r="E103">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F103">
-        <v>4.6350000000000002E-2</v>
+        <v>8.6400000000000001E-3</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>705</v>
+        <v>623</v>
       </c>
       <c r="B104" t="s">
-        <v>706</v>
+        <v>624</v>
       </c>
       <c r="C104">
-        <v>0.502</v>
+        <v>4.8817500000000003</v>
       </c>
       <c r="D104">
-        <v>0.27830658554111798</v>
+        <v>8.5169596052034109</v>
       </c>
       <c r="E104">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F104">
-        <v>4.6699999999999998E-2</v>
+        <v>5.1200000000000004E-3</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>707</v>
+        <v>417</v>
       </c>
       <c r="B105" t="s">
-        <v>708</v>
+        <v>418</v>
       </c>
       <c r="C105">
-        <v>0.332666666666667</v>
+        <v>7.7347777777777802</v>
       </c>
       <c r="D105">
-        <v>9.3735443314326594E-2</v>
+        <v>15.2981984637055</v>
       </c>
       <c r="E105">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="F105">
-        <v>4.7129999999999998E-2</v>
+        <v>1.0580000000000001E-2</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>415</v>
+        <v>611</v>
       </c>
       <c r="B106" t="s">
-        <v>416</v>
+        <v>612</v>
       </c>
       <c r="C106">
-        <v>0.50904761904761897</v>
+        <v>17.995000000000001</v>
       </c>
       <c r="D106">
-        <v>0.13503017299495601</v>
+        <v>19.4256589077436</v>
       </c>
       <c r="E106">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F106">
-        <v>4.8030000000000003E-2</v>
+        <v>1.9599999999999999E-3</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="B107" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="C107">
-        <v>0.55913157894736798</v>
+        <v>222.78479999999999</v>
       </c>
       <c r="D107">
-        <v>0.31522902232514799</v>
+        <v>211.520895055784</v>
       </c>
       <c r="E107">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="F107">
-        <v>4.8719999999999999E-2</v>
+        <v>5.1999999999999995E-4</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F360">
-    <sortCondition ref="F2:F360"/>
+  <sortState ref="A2:F107">
+    <sortCondition ref="C1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
